--- a/ArticleManage/main_working_folder/output_folders/Data 77 Characterization of Chemically and/Data77_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 77 Characterization of Chemically and/Data77_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PAC200-2" sheetId="1" r:id="rId1"/>
-    <sheet name="PAC200-4" sheetId="2" r:id="rId4"/>
-    <sheet name="PAC270-2" sheetId="3" r:id="rId5"/>
-    <sheet name="PAC270-4" sheetId="4" r:id="rId6"/>
-    <sheet name="PAC550-2" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3_1 PAC200-2  0-1-0-20 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3_1 PAC200-4  0-1-0-20 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3_1 PAC270-2  0-1-0-20 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3_1 PAC270-4  0-1-0-20 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3_1 PAC550-2  0-1-0-20 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -113,7 +113,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC200-2</a:t>
+              <a:t>Izoterma adsorpcji probki PAC200-2 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PAC200-2'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 PAC200-2  0-1-0-20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PAC200-2'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 PAC200-2  0-1-0-20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -190,6 +190,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -259,6 +261,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -423,7 +427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC200-4</a:t>
+              <a:t>Izoterma adsorpcji probki PAC200-4 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -482,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PAC200-4'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 PAC200-4  0-1-0-20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PAC200-4'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 PAC200-4  0-1-0-20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -500,6 +504,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -569,6 +575,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -733,7 +741,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC270-2</a:t>
+              <a:t>Izoterma adsorpcji probki PAC270-2 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PAC270-2'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 PAC270-2  0-1-0-20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PAC270-2'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 PAC270-2  0-1-0-20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -810,6 +818,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -879,6 +889,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1043,7 +1055,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC270-4</a:t>
+              <a:t>Izoterma adsorpcji probki PAC270-4 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1102,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PAC270-4'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 PAC270-4  0-1-0-20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PAC270-4'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 PAC270-4  0-1-0-20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1120,6 +1132,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1189,6 +1203,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1353,7 +1369,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC550-2</a:t>
+              <a:t>Izoterma adsorpcji probki PAC550-2 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1412,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PAC550-2'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 PAC550-2  0-1-0-20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PAC550-2'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 PAC550-2  0-1-0-20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1430,6 +1446,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1499,6 +1517,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 77 Characterization of Chemically and/Data77_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 77 Characterization of Chemically and/Data77_all_graphs_excel.xlsx
@@ -4927,7 +4927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4948,213 +4948,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0092</v>
+        <v>0.2334</v>
       </c>
       <c r="B3" s="0">
-        <v>12.3569</v>
+        <v>13.8909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0307</v>
+        <v>0.2502</v>
       </c>
       <c r="B4" s="0">
-        <v>12.8858</v>
+        <v>13.9451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0511</v>
+        <v>0.2717</v>
       </c>
       <c r="B5" s="0">
-        <v>13.1579</v>
+        <v>13.9626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0746</v>
+        <v>0.2888</v>
       </c>
       <c r="B6" s="0">
-        <v>13.3518</v>
+        <v>13.9995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0941</v>
+        <v>0.3063</v>
       </c>
       <c r="B7" s="0">
-        <v>13.459</v>
+        <v>14.0226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1151</v>
+        <v>0.3674</v>
       </c>
       <c r="B8" s="0">
-        <v>13.5546</v>
+        <v>14.1391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1365</v>
+        <v>0.4294</v>
       </c>
       <c r="B9" s="0">
-        <v>13.6311</v>
+        <v>14.2104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1572</v>
+        <v>0.4942</v>
       </c>
       <c r="B10" s="0">
-        <v>13.6906</v>
+        <v>14.2989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1785</v>
+        <v>0.5553</v>
       </c>
       <c r="B11" s="0">
-        <v>13.7505</v>
+        <v>14.3723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2007</v>
+        <v>0.6173</v>
       </c>
       <c r="B12" s="0">
-        <v>13.8315</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2227</v>
+        <v>0.6811</v>
       </c>
       <c r="B13" s="0">
-        <v>13.8631</v>
+        <v>14.5569</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2441</v>
+        <v>0.7431</v>
       </c>
       <c r="B14" s="0">
-        <v>13.9173</v>
+        <v>14.6217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.265</v>
+        <v>0.8051</v>
       </c>
       <c r="B15" s="0">
-        <v>13.9626</v>
+        <v>14.7188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2849</v>
+        <v>0.8671</v>
       </c>
       <c r="B16" s="0">
-        <v>13.9995</v>
+        <v>14.8257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3046</v>
+        <v>0.9291</v>
       </c>
       <c r="B17" s="0">
-        <v>14.0226</v>
+        <v>14.9358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3674</v>
+        <v>0.993</v>
       </c>
       <c r="B18" s="0">
-        <v>14.1391</v>
+        <v>15.1614</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4294</v>
+        <v>0.2179</v>
       </c>
       <c r="B19" s="0">
-        <v>14.2104</v>
+        <v>13.8611</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4942</v>
+        <v>0.1978</v>
       </c>
       <c r="B20" s="0">
-        <v>14.2989</v>
+        <v>13.8056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5553</v>
+        <v>0.1799</v>
       </c>
       <c r="B21" s="0">
-        <v>14.3723</v>
+        <v>13.7778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6173</v>
+        <v>0.1609</v>
       </c>
       <c r="B22" s="0">
-        <v>14.45</v>
+        <v>13.6944</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6811</v>
+        <v>0.143</v>
       </c>
       <c r="B23" s="0">
-        <v>14.5569</v>
+        <v>13.6389</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7431</v>
+        <v>0.1251</v>
       </c>
       <c r="B24" s="0">
-        <v>14.6217</v>
+        <v>13.6111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8051</v>
+        <v>0.1084</v>
       </c>
       <c r="B25" s="0">
-        <v>14.7188</v>
+        <v>13.5556</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8671</v>
+        <v>0.0883</v>
       </c>
       <c r="B26" s="0">
-        <v>14.8257</v>
+        <v>13.4444</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9291</v>
+        <v>0.0726</v>
       </c>
       <c r="B27" s="0">
-        <v>14.9358</v>
+        <v>13.3333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.993</v>
+        <v>0.0525</v>
       </c>
       <c r="B28" s="0">
-        <v>15.1614</v>
-      </c>
-    </row>
-    <row r="29"/>
+        <v>13.1944</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.038</v>
+      </c>
+      <c r="B29" s="0">
+        <v>13.0278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="B30" s="0">
+        <v>12.6944</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0078</v>
+      </c>
+      <c r="B31" s="0">
+        <v>12.1667</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5163,7 +5187,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5184,213 +5208,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0191</v>
+        <v>0.3683</v>
       </c>
       <c r="B3" s="0">
-        <v>5.8149</v>
+        <v>6.3909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0395</v>
+        <v>0.4312</v>
       </c>
       <c r="B4" s="0">
-        <v>5.9489</v>
+        <v>6.4379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0597</v>
+        <v>0.496</v>
       </c>
       <c r="B5" s="0">
-        <v>6.0169</v>
+        <v>6.4854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0765</v>
+        <v>0.5553</v>
       </c>
       <c r="B6" s="0">
-        <v>6.0707</v>
+        <v>6.5124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0973</v>
+        <v>0.6173</v>
       </c>
       <c r="B7" s="0">
-        <v>6.1246</v>
+        <v>6.5286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.118</v>
+        <v>0.6793</v>
       </c>
       <c r="B8" s="0">
-        <v>6.1529</v>
+        <v>6.5972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1388</v>
+        <v>0.744</v>
       </c>
       <c r="B9" s="0">
-        <v>6.1926</v>
+        <v>6.5987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1595</v>
+        <v>0.8069</v>
       </c>
       <c r="B10" s="0">
-        <v>6.2294</v>
+        <v>6.6484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1799</v>
+        <v>0.8671</v>
       </c>
       <c r="B11" s="0">
-        <v>6.2436</v>
+        <v>6.6743</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2031</v>
+        <v>0.9282</v>
       </c>
       <c r="B12" s="0">
-        <v>6.2606</v>
+        <v>6.7234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2245</v>
+        <v>0.9948</v>
       </c>
       <c r="B13" s="0">
-        <v>6.3059</v>
+        <v>6.8647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2454</v>
+        <v>0.3061</v>
       </c>
       <c r="B14" s="0">
-        <v>6.3166</v>
+        <v>6.3611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2669</v>
+        <v>0.2916</v>
       </c>
       <c r="B15" s="0">
-        <v>6.3181</v>
+        <v>6.3611</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2867</v>
+        <v>0.2726</v>
       </c>
       <c r="B16" s="0">
-        <v>6.3456</v>
+        <v>6.3333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3059</v>
+        <v>0.2525</v>
       </c>
       <c r="B17" s="0">
-        <v>6.3484</v>
+        <v>6.3333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3683</v>
+        <v>0.2358</v>
       </c>
       <c r="B18" s="0">
-        <v>6.3909</v>
+        <v>6.3056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4312</v>
+        <v>0.219</v>
       </c>
       <c r="B19" s="0">
-        <v>6.4379</v>
+        <v>6.3056</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.496</v>
+        <v>0.2011</v>
       </c>
       <c r="B20" s="0">
-        <v>6.4854</v>
+        <v>6.3056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5553</v>
+        <v>0.1832</v>
       </c>
       <c r="B21" s="0">
-        <v>6.5124</v>
+        <v>6.2778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6173</v>
+        <v>0.1676</v>
       </c>
       <c r="B22" s="0">
-        <v>6.5286</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6793</v>
+        <v>0.1497</v>
       </c>
       <c r="B23" s="0">
-        <v>6.5972</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.744</v>
+        <v>0.1318</v>
       </c>
       <c r="B24" s="0">
-        <v>6.5987</v>
+        <v>6.1944</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8069</v>
+        <v>0.114</v>
       </c>
       <c r="B25" s="0">
-        <v>6.6484</v>
+        <v>6.1667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8671</v>
+        <v>0.095</v>
       </c>
       <c r="B26" s="0">
-        <v>6.6743</v>
+        <v>6.1389</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9282</v>
+        <v>0.076</v>
       </c>
       <c r="B27" s="0">
-        <v>6.7234</v>
+        <v>6.1111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9948</v>
+        <v>0.0603</v>
       </c>
       <c r="B28" s="0">
-        <v>6.8647</v>
-      </c>
-    </row>
-    <row r="29"/>
+        <v>6.0556</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0436</v>
+      </c>
+      <c r="B29" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0291</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5.9167</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0156</v>
+      </c>
+      <c r="B31" s="0">
+        <v>5.8056</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5399,7 +5447,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5420,221 +5468,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.009</v>
+        <v>0.3656</v>
       </c>
       <c r="B3" s="0">
-        <v>2.6945</v>
+        <v>4.8607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0215</v>
+        <v>0.4276</v>
       </c>
       <c r="B4" s="0">
-        <v>3.1756</v>
+        <v>4.9384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0414</v>
+        <v>0.4896</v>
       </c>
       <c r="B5" s="0">
-        <v>3.4665</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0627</v>
+        <v>0.5534</v>
       </c>
       <c r="B6" s="0">
-        <v>3.7323</v>
+        <v>5.0486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0831</v>
+        <v>0.6145</v>
       </c>
       <c r="B7" s="0">
-        <v>3.8791</v>
+        <v>5.1413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1056</v>
+        <v>0.6765</v>
       </c>
       <c r="B8" s="0">
-        <v>4.0219</v>
+        <v>5.1894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1235</v>
+        <v>0.7395</v>
       </c>
       <c r="B9" s="0">
-        <v>4.1296</v>
+        <v>5.2655</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1429</v>
+        <v>0.8015</v>
       </c>
       <c r="B10" s="0">
-        <v>4.2486</v>
+        <v>5.3109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.164</v>
+        <v>0.8635</v>
       </c>
       <c r="B11" s="0">
-        <v>4.3292</v>
+        <v>5.3595</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1844</v>
+        <v>0.9255</v>
       </c>
       <c r="B12" s="0">
-        <v>4.4073</v>
+        <v>5.4469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2046</v>
+        <v>0.993</v>
       </c>
       <c r="B13" s="0">
-        <v>4.4689</v>
+        <v>5.5667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2252</v>
+        <v>0.305</v>
       </c>
       <c r="B14" s="0">
-        <v>4.5405</v>
+        <v>4.7778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2459</v>
+        <v>0.286</v>
       </c>
       <c r="B15" s="0">
-        <v>4.6085</v>
+        <v>4.7222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2663</v>
+        <v>0.2704</v>
       </c>
       <c r="B16" s="0">
-        <v>4.6819</v>
+        <v>4.6944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2858</v>
+        <v>0.2514</v>
       </c>
       <c r="B17" s="0">
-        <v>4.7502</v>
+        <v>4.6389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3054</v>
+        <v>0.2335</v>
       </c>
       <c r="B18" s="0">
-        <v>4.8089</v>
+        <v>4.5556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3656</v>
+        <v>0.2145</v>
       </c>
       <c r="B19" s="0">
-        <v>4.8607</v>
+        <v>4.4722</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4276</v>
+        <v>0.1966</v>
       </c>
       <c r="B20" s="0">
-        <v>4.9384</v>
+        <v>4.4444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4896</v>
+        <v>0.1765</v>
       </c>
       <c r="B21" s="0">
-        <v>5</v>
+        <v>4.3889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5534</v>
+        <v>0.1598</v>
       </c>
       <c r="B22" s="0">
-        <v>5.0486</v>
+        <v>4.3056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6145</v>
+        <v>0.143</v>
       </c>
       <c r="B23" s="0">
-        <v>5.1413</v>
+        <v>4.2222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6765</v>
+        <v>0.1251</v>
       </c>
       <c r="B24" s="0">
-        <v>5.1894</v>
+        <v>4.1389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7395</v>
+        <v>0.1073</v>
       </c>
       <c r="B25" s="0">
-        <v>5.2655</v>
+        <v>4.0278</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8015</v>
+        <v>0.0883</v>
       </c>
       <c r="B26" s="0">
-        <v>5.3109</v>
+        <v>3.9167</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8635</v>
+        <v>0.0715</v>
       </c>
       <c r="B27" s="0">
-        <v>5.3595</v>
+        <v>3.8056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9255</v>
+        <v>0.0547</v>
       </c>
       <c r="B28" s="0">
-        <v>5.4469</v>
+        <v>3.6667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.993</v>
+        <v>0.0369</v>
       </c>
       <c r="B29" s="0">
-        <v>5.5667</v>
-      </c>
-    </row>
-    <row r="30"/>
+        <v>3.4167</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="B30" s="0">
+        <v>3.1111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0067</v>
+      </c>
+      <c r="B31" s="0">
+        <v>2.6111</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5643,7 +5707,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5664,221 +5728,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0118</v>
+        <v>0.3683</v>
       </c>
       <c r="B3" s="0">
-        <v>0.4424</v>
+        <v>1.2109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0325</v>
+        <v>0.4322</v>
       </c>
       <c r="B4" s="0">
-        <v>0.5837</v>
+        <v>1.2449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0529</v>
+        <v>0.4978</v>
       </c>
       <c r="B5" s="0">
-        <v>0.6819</v>
+        <v>1.2562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0734</v>
+        <v>0.5607</v>
       </c>
       <c r="B6" s="0">
-        <v>0.755</v>
+        <v>1.2886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0961</v>
+        <v>0.6209</v>
       </c>
       <c r="B7" s="0">
-        <v>0.8205</v>
+        <v>1.3016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1166</v>
+        <v>0.6829</v>
       </c>
       <c r="B8" s="0">
-        <v>0.8658</v>
+        <v>1.3242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.137</v>
+        <v>0.744</v>
       </c>
       <c r="B9" s="0">
-        <v>0.9187</v>
+        <v>1.3809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1575</v>
+        <v>0.8078</v>
       </c>
       <c r="B10" s="0">
-        <v>0.9514</v>
+        <v>1.3837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1778</v>
+        <v>0.8689</v>
       </c>
       <c r="B11" s="0">
-        <v>0.9986</v>
+        <v>1.4149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1992</v>
+        <v>0.9319</v>
       </c>
       <c r="B12" s="0">
-        <v>1.0371</v>
+        <v>1.4263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2188</v>
+        <v>0.9875</v>
       </c>
       <c r="B13" s="0">
-        <v>1.055</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.241</v>
+        <v>0.3073</v>
       </c>
       <c r="B14" s="0">
-        <v>1.0885</v>
+        <v>1.1944</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2603</v>
+        <v>0.2927</v>
       </c>
       <c r="B15" s="0">
-        <v>1.1174</v>
+        <v>1.1667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2815</v>
+        <v>0.276</v>
       </c>
       <c r="B16" s="0">
-        <v>1.1474</v>
+        <v>1.1389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3018</v>
+        <v>0.2547</v>
       </c>
       <c r="B17" s="0">
-        <v>1.1717</v>
+        <v>1.1111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3127</v>
+        <v>0.238</v>
       </c>
       <c r="B18" s="0">
-        <v>1.1882</v>
+        <v>1.0833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3683</v>
+        <v>0.219</v>
       </c>
       <c r="B19" s="0">
-        <v>1.2109</v>
+        <v>1.0556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4322</v>
+        <v>0.2</v>
       </c>
       <c r="B20" s="0">
-        <v>1.2449</v>
+        <v>1.0278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4978</v>
+        <v>0.1821</v>
       </c>
       <c r="B21" s="0">
-        <v>1.2562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5607</v>
+        <v>0.1676</v>
       </c>
       <c r="B22" s="0">
-        <v>1.2886</v>
+        <v>0.9722</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6209</v>
+        <v>0.1497</v>
       </c>
       <c r="B23" s="0">
-        <v>1.3016</v>
+        <v>0.9444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6829</v>
+        <v>0.1318</v>
       </c>
       <c r="B24" s="0">
-        <v>1.3242</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.744</v>
+        <v>0.1128</v>
       </c>
       <c r="B25" s="0">
-        <v>1.3809</v>
+        <v>0.8611</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8078</v>
+        <v>0.0939</v>
       </c>
       <c r="B26" s="0">
-        <v>1.3837</v>
+        <v>0.8056</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8689</v>
+        <v>0.0743</v>
       </c>
       <c r="B27" s="0">
-        <v>1.4149</v>
+        <v>0.7639</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9319</v>
+        <v>0.057</v>
       </c>
       <c r="B28" s="0">
-        <v>1.4263</v>
+        <v>0.6944</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9875</v>
+        <v>0.0391</v>
       </c>
       <c r="B29" s="0">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="30"/>
+        <v>0.6111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0201</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0034</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.3889</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5887,7 +5967,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6028,77 +6108,45 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.7495</v>
+        <v>0.7879</v>
       </c>
       <c r="B18" s="0">
-        <v>6.5156</v>
+        <v>6.5415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.7879</v>
+        <v>0.837</v>
       </c>
       <c r="B19" s="0">
-        <v>6.5415</v>
+        <v>6.5836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8069</v>
+        <v>0.8872</v>
       </c>
       <c r="B20" s="0">
-        <v>6.561</v>
+        <v>6.6452</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.837</v>
+        <v>0.9875</v>
       </c>
       <c r="B21" s="0">
-        <v>6.5836</v>
+        <v>6.7747</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8671</v>
+        <v>0.9419</v>
       </c>
       <c r="B22" s="0">
-        <v>6.6063</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.8872</v>
-      </c>
-      <c r="B23" s="0">
-        <v>6.6452</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.9328</v>
-      </c>
-      <c r="B24" s="0">
-        <v>6.6743</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.9446</v>
-      </c>
-      <c r="B25" s="0">
-        <v>6.7083</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.9875</v>
-      </c>
-      <c r="B26" s="0">
-        <v>6.7747</v>
-      </c>
-    </row>
-    <row r="27"/>
+        <v>6.6944</v>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 77 Characterization of Chemically and/Data77_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 77 Characterization of Chemically and/Data77_all_graphs_excel.xlsx
@@ -5,26 +5,46 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3_1 PAC200-2  0-1-0-20 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3_1 PAC200-4  0-1-0-20 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3_1 PAC270-2  0-1-0-20 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3_1 PAC270-4  0-1-0-20 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 3_1 PAC550-2  0-1-0-20 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3 CAC-NOCarb  0&amp;1&amp;0&amp;20 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 CAC200-2  0&amp;1&amp;0&amp;20 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 CAC200-4  0&amp;1&amp;0&amp;20 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 CAC270-2  0&amp;1&amp;0&amp;20 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 CAC270-4  0&amp;1&amp;0&amp;20 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3_1 PAC200-2  0&amp;1&amp;0&amp;20 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3_1 PAC200-4  0&amp;1&amp;0&amp;20 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 3_1 PAC270-2  0&amp;1&amp;0&amp;20 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 3_1 PAC270-4  0&amp;1&amp;0&amp;20 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 3_1 PAC550-2  0&amp;1&amp;0&amp;20 " sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>PAC200-2</t>
+    <t>CAC-NOCarb</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>CAC200-2</t>
+  </si>
+  <si>
+    <t>CAC200-4</t>
+  </si>
+  <si>
+    <t>CAC270-2</t>
+  </si>
+  <si>
+    <t>CAC270-4</t>
+  </si>
+  <si>
+    <t>PAC200-2</t>
   </si>
   <si>
     <t>PAC200-4</t>
@@ -113,7 +133,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC200-2 z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki CAC-NOCarb z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +192,326 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC200-2  0-1-0-20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 CAC-NOCarb  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC200-2  0-1-0-20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 CAC-NOCarb  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki PAC550-2 z wykresu 'Figure 3_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC550-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC550-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -427,7 +761,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC200-4 z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki CAC200-2 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +820,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC200-4  0-1-0-20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 CAC200-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC200-4  0-1-0-20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 CAC200-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -741,7 +1075,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC270-2 z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki CAC200-4 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -800,12 +1134,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC270-2  0-1-0-20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 CAC200-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC270-2  0-1-0-20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 CAC200-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1055,7 +1389,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC270-4 z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki CAC270-2 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1114,12 +1448,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC270-4  0-1-0-20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 CAC270-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC270-4  0-1-0-20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 CAC270-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1369,7 +1703,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC550-2 z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki CAC270-4 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1428,12 +1762,1268 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC550-2  0-1-0-20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 CAC270-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC550-2  0-1-0-20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 CAC270-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki PAC200-2 z wykresu 'Figure 3_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC200-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC200-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki PAC200-4 z wykresu 'Figure 3_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC200-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC200-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki PAC270-2 z wykresu 'Figure 3_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC270-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC270-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki PAC270-4 z wykresu 'Figure 3_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC270-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC270-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1690,6 +3280,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1850,6 +3480,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2371,7 +4161,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2892,7 +4682,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3413,7 +5203,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3934,7 +5724,2612 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4473,6 +8868,41 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4613,6 +9043,146 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4927,7 +9497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4948,237 +9518,353 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2334</v>
+        <v>0.9867</v>
       </c>
       <c r="B3" s="0">
-        <v>13.8909</v>
+        <v>11.2059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2502</v>
+        <v>0.9367</v>
       </c>
       <c r="B4" s="0">
-        <v>13.9451</v>
+        <v>10.6263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.2717</v>
+        <v>0.8879</v>
       </c>
       <c r="B5" s="0">
-        <v>13.9626</v>
+        <v>10.3913</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2888</v>
+        <v>0.838</v>
       </c>
       <c r="B6" s="0">
-        <v>13.9995</v>
+        <v>10.2803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.3063</v>
+        <v>0.788</v>
       </c>
       <c r="B7" s="0">
-        <v>14.0226</v>
+        <v>10.1969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3674</v>
+        <v>0.7342</v>
       </c>
       <c r="B8" s="0">
-        <v>14.1391</v>
+        <v>10.1686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4294</v>
+        <v>0.682</v>
       </c>
       <c r="B9" s="0">
-        <v>14.2104</v>
+        <v>10.0852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4942</v>
+        <v>0.6337</v>
       </c>
       <c r="B10" s="0">
-        <v>14.2989</v>
+        <v>10.0432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5553</v>
+        <v>0.5821</v>
       </c>
       <c r="B11" s="0">
-        <v>14.3723</v>
+        <v>10.0149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6173</v>
+        <v>0.5244</v>
       </c>
       <c r="B12" s="0">
-        <v>14.45</v>
+        <v>9.9728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6811</v>
+        <v>0.4734</v>
       </c>
       <c r="B13" s="0">
-        <v>14.5569</v>
+        <v>9.9169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7431</v>
+        <v>0.4218</v>
       </c>
       <c r="B14" s="0">
-        <v>14.6217</v>
+        <v>9.8473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8051</v>
+        <v>0.3668</v>
       </c>
       <c r="B15" s="0">
-        <v>14.7188</v>
+        <v>9.8052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.8671</v>
+        <v>0.3163</v>
       </c>
       <c r="B16" s="0">
-        <v>14.8257</v>
+        <v>9.7356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.9291</v>
+        <v>0.2647</v>
       </c>
       <c r="B17" s="0">
-        <v>14.9358</v>
+        <v>9.6797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.993</v>
+        <v>0.2125</v>
       </c>
       <c r="B18" s="0">
-        <v>15.1614</v>
+        <v>9.6101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2179</v>
+        <v>0.1582</v>
       </c>
       <c r="B19" s="0">
-        <v>13.8611</v>
+        <v>9.5129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1978</v>
+        <v>0.1054</v>
       </c>
       <c r="B20" s="0">
-        <v>13.8056</v>
+        <v>9.3743</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1799</v>
+        <v>0.056</v>
       </c>
       <c r="B21" s="0">
-        <v>13.7778</v>
+        <v>9.1806</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1609</v>
+        <v>0.0039</v>
       </c>
       <c r="B22" s="0">
-        <v>13.6944</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.143</v>
-      </c>
-      <c r="B23" s="0">
-        <v>13.6389</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1251</v>
-      </c>
-      <c r="B24" s="0">
-        <v>13.6111</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.1084</v>
-      </c>
-      <c r="B25" s="0">
-        <v>13.5556</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0883</v>
-      </c>
-      <c r="B26" s="0">
-        <v>13.4444</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0726</v>
-      </c>
-      <c r="B27" s="0">
-        <v>13.3333</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0525</v>
-      </c>
-      <c r="B28" s="0">
-        <v>13.1944</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.038</v>
-      </c>
-      <c r="B29" s="0">
-        <v>13.0278</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.019</v>
-      </c>
-      <c r="B30" s="0">
-        <v>12.6944</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0078</v>
-      </c>
-      <c r="B31" s="0">
-        <v>12.1667</v>
-      </c>
-    </row>
-    <row r="32"/>
+        <v>8.1186</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0027</v>
+      </c>
+      <c r="B3" s="0">
+        <v>4.6523</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0565</v>
+      </c>
+      <c r="B4" s="0">
+        <v>5.4086</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1057</v>
+      </c>
+      <c r="B5" s="0">
+        <v>5.6504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1559</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5.7999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.2106</v>
+      </c>
+      <c r="B7" s="0">
+        <v>5.9132</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.2635</v>
+      </c>
+      <c r="B8" s="0">
+        <v>6.0234</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3164</v>
+      </c>
+      <c r="B9" s="0">
+        <v>6.1011</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.372</v>
+      </c>
+      <c r="B10" s="0">
+        <v>6.168</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.4249</v>
+      </c>
+      <c r="B11" s="0">
+        <v>6.2322</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.4768</v>
+      </c>
+      <c r="B12" s="0">
+        <v>6.276</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5261</v>
+      </c>
+      <c r="B13" s="0">
+        <v>6.3278</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5753</v>
+      </c>
+      <c r="B14" s="0">
+        <v>6.3731</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6273</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6.4164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6811</v>
+      </c>
+      <c r="B16" s="0">
+        <v>6.4541</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.7366</v>
+      </c>
+      <c r="B17" s="0">
+        <v>6.5005</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.7879</v>
+      </c>
+      <c r="B18" s="0">
+        <v>6.5415</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.837</v>
+      </c>
+      <c r="B19" s="0">
+        <v>6.5836</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.8872</v>
+      </c>
+      <c r="B20" s="0">
+        <v>6.6452</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.9875</v>
+      </c>
+      <c r="B21" s="0">
+        <v>6.7747</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.9419</v>
+      </c>
+      <c r="B22" s="0">
+        <v>6.6944</v>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5208,234 +9894,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.3683</v>
+        <v>0.99</v>
       </c>
       <c r="B3" s="0">
-        <v>6.3909</v>
+        <v>5.0033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.4312</v>
+        <v>0.9301</v>
       </c>
       <c r="B4" s="0">
-        <v>6.4379</v>
+        <v>4.2444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.496</v>
+        <v>0.869</v>
       </c>
       <c r="B5" s="0">
-        <v>6.4854</v>
+        <v>4.1608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.5553</v>
+        <v>0.808</v>
       </c>
       <c r="B6" s="0">
-        <v>6.5124</v>
+        <v>4.1049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6173</v>
+        <v>0.7458</v>
       </c>
       <c r="B7" s="0">
-        <v>6.5286</v>
+        <v>4.0213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6793</v>
+        <v>0.6837</v>
       </c>
       <c r="B8" s="0">
-        <v>6.5972</v>
+        <v>4.0067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.744</v>
+        <v>0.6188</v>
       </c>
       <c r="B9" s="0">
-        <v>6.5987</v>
+        <v>3.9782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8069</v>
+        <v>0.5566</v>
       </c>
       <c r="B10" s="0">
-        <v>6.6484</v>
+        <v>3.9222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8671</v>
+        <v>0.4961</v>
       </c>
       <c r="B11" s="0">
-        <v>6.6743</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9282</v>
+        <v>0.4317</v>
       </c>
       <c r="B12" s="0">
-        <v>6.7234</v>
+        <v>3.8516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9948</v>
+        <v>0.3701</v>
       </c>
       <c r="B13" s="0">
-        <v>6.8647</v>
+        <v>3.8094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3061</v>
+        <v>0.3074</v>
       </c>
       <c r="B14" s="0">
-        <v>6.3611</v>
+        <v>3.7672</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2916</v>
+        <v>0.288</v>
       </c>
       <c r="B15" s="0">
-        <v>6.3611</v>
+        <v>3.7531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2726</v>
+        <v>0.2714</v>
       </c>
       <c r="B16" s="0">
-        <v>6.3333</v>
+        <v>3.7391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2525</v>
+        <v>0.2531</v>
       </c>
       <c r="B17" s="0">
-        <v>6.3333</v>
+        <v>3.7113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2358</v>
+        <v>0.2353</v>
       </c>
       <c r="B18" s="0">
-        <v>6.3056</v>
+        <v>3.6835</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.219</v>
+        <v>0.2192</v>
       </c>
       <c r="B19" s="0">
-        <v>6.3056</v>
+        <v>3.6695</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2011</v>
+        <v>0.2031</v>
       </c>
       <c r="B20" s="0">
-        <v>6.3056</v>
+        <v>3.6555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1832</v>
+        <v>0.1848</v>
       </c>
       <c r="B21" s="0">
-        <v>6.2778</v>
+        <v>3.6276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1676</v>
+        <v>0.1681</v>
       </c>
       <c r="B22" s="0">
-        <v>6.25</v>
+        <v>3.6274</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1497</v>
+        <v>0.1509</v>
       </c>
       <c r="B23" s="0">
-        <v>6.25</v>
+        <v>3.6134</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1318</v>
+        <v>0.1332</v>
       </c>
       <c r="B24" s="0">
-        <v>6.1944</v>
+        <v>3.5718</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.114</v>
+        <v>0.1127</v>
       </c>
       <c r="B25" s="0">
-        <v>6.1667</v>
+        <v>3.5439</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.095</v>
+        <v>0.0966</v>
       </c>
       <c r="B26" s="0">
-        <v>6.1389</v>
+        <v>3.5161</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.076</v>
+        <v>0.0782</v>
       </c>
       <c r="B27" s="0">
-        <v>6.1111</v>
+        <v>3.4608</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0603</v>
+        <v>0.0616</v>
       </c>
       <c r="B28" s="0">
-        <v>6.0556</v>
+        <v>3.433</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0436</v>
+        <v>0.0411</v>
       </c>
       <c r="B29" s="0">
-        <v>6</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0291</v>
+        <v>0.0244</v>
       </c>
       <c r="B30" s="0">
-        <v>5.9167</v>
+        <v>3.2533</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0156</v>
+        <v>0.0122</v>
       </c>
       <c r="B31" s="0">
-        <v>5.8056</v>
+        <v>3.1015</v>
       </c>
     </row>
     <row r="32"/>
@@ -5468,234 +10154,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.3656</v>
+        <v>0.99</v>
       </c>
       <c r="B3" s="0">
-        <v>4.8607</v>
+        <v>5.8717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.4276</v>
+        <v>0.9262</v>
       </c>
       <c r="B4" s="0">
-        <v>4.9384</v>
+        <v>5.0162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.4896</v>
+        <v>0.8674</v>
       </c>
       <c r="B5" s="0">
-        <v>5</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.5534</v>
+        <v>0.8063</v>
       </c>
       <c r="B6" s="0">
-        <v>5.0486</v>
+        <v>4.8078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6145</v>
+        <v>0.7436</v>
       </c>
       <c r="B7" s="0">
-        <v>5.1413</v>
+        <v>4.7656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6765</v>
+        <v>0.682</v>
       </c>
       <c r="B8" s="0">
-        <v>5.1894</v>
+        <v>4.7096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7395</v>
+        <v>0.6204</v>
       </c>
       <c r="B9" s="0">
-        <v>5.2655</v>
+        <v>4.6536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8015</v>
+        <v>0.5583</v>
       </c>
       <c r="B10" s="0">
-        <v>5.3109</v>
+        <v>4.6252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8635</v>
+        <v>0.4939</v>
       </c>
       <c r="B11" s="0">
-        <v>5.3595</v>
+        <v>4.583</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9255</v>
+        <v>0.4334</v>
       </c>
       <c r="B12" s="0">
-        <v>5.4469</v>
+        <v>4.5408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.993</v>
+        <v>0.369</v>
       </c>
       <c r="B13" s="0">
-        <v>5.5667</v>
+        <v>4.4985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.305</v>
+        <v>0.308</v>
       </c>
       <c r="B14" s="0">
-        <v>4.7778</v>
+        <v>4.4563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.286</v>
+        <v>0.2891</v>
       </c>
       <c r="B15" s="0">
-        <v>4.7222</v>
+        <v>4.4285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2704</v>
+        <v>0.2758</v>
       </c>
       <c r="B16" s="0">
-        <v>4.6944</v>
+        <v>4.4283</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2514</v>
+        <v>0.2547</v>
       </c>
       <c r="B17" s="0">
-        <v>4.6389</v>
+        <v>4.3867</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2335</v>
+        <v>0.2381</v>
       </c>
       <c r="B18" s="0">
-        <v>4.5556</v>
+        <v>4.3865</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2145</v>
+        <v>0.222</v>
       </c>
       <c r="B19" s="0">
-        <v>4.4722</v>
+        <v>4.3587</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1966</v>
+        <v>0.2048</v>
       </c>
       <c r="B20" s="0">
-        <v>4.4444</v>
+        <v>4.3309</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1765</v>
+        <v>0.1853</v>
       </c>
       <c r="B21" s="0">
-        <v>4.3889</v>
+        <v>4.3444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1598</v>
+        <v>0.1643</v>
       </c>
       <c r="B22" s="0">
-        <v>4.3056</v>
+        <v>4.3165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.143</v>
+        <v>0.1465</v>
       </c>
       <c r="B23" s="0">
-        <v>4.2222</v>
+        <v>4.2749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1251</v>
+        <v>0.1282</v>
       </c>
       <c r="B24" s="0">
-        <v>4.1389</v>
+        <v>4.2471</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1073</v>
+        <v>0.1115</v>
       </c>
       <c r="B25" s="0">
-        <v>4.0278</v>
+        <v>4.2193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0883</v>
+        <v>0.091</v>
       </c>
       <c r="B26" s="0">
-        <v>3.9167</v>
+        <v>4.1777</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0715</v>
+        <v>0.0733</v>
       </c>
       <c r="B27" s="0">
-        <v>3.8056</v>
+        <v>4.1223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0547</v>
+        <v>0.0555</v>
       </c>
       <c r="B28" s="0">
-        <v>3.6667</v>
+        <v>4.0807</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0369</v>
+        <v>0.0366</v>
       </c>
       <c r="B29" s="0">
-        <v>3.4167</v>
+        <v>3.984</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="B30" s="0">
-        <v>3.1111</v>
+        <v>3.8735</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0067</v>
+        <v>0.0039</v>
       </c>
       <c r="B31" s="0">
-        <v>2.6111</v>
+        <v>3.4873</v>
       </c>
     </row>
     <row r="32"/>
@@ -5728,234 +10414,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.3683</v>
+        <v>0.9861</v>
       </c>
       <c r="B3" s="0">
-        <v>1.2109</v>
+        <v>5.8165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.4322</v>
+        <v>0.9229</v>
       </c>
       <c r="B4" s="0">
-        <v>1.2449</v>
+        <v>3.4448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.4978</v>
+        <v>0.864</v>
       </c>
       <c r="B5" s="0">
-        <v>1.2562</v>
+        <v>3.1546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.5607</v>
+        <v>0.8047</v>
       </c>
       <c r="B6" s="0">
-        <v>1.2886</v>
+        <v>3.0435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6209</v>
+        <v>0.7414</v>
       </c>
       <c r="B7" s="0">
-        <v>1.3016</v>
+        <v>2.9323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6829</v>
+        <v>0.6787</v>
       </c>
       <c r="B8" s="0">
-        <v>1.3242</v>
+        <v>2.8763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.744</v>
+        <v>0.6171</v>
       </c>
       <c r="B9" s="0">
-        <v>1.3809</v>
+        <v>2.8204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8078</v>
+        <v>0.5533</v>
       </c>
       <c r="B10" s="0">
-        <v>1.3837</v>
+        <v>2.7781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8689</v>
+        <v>0.4922</v>
       </c>
       <c r="B11" s="0">
-        <v>1.4149</v>
+        <v>2.6946</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9319</v>
+        <v>0.4317</v>
       </c>
       <c r="B12" s="0">
-        <v>1.4263</v>
+        <v>2.6524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9875</v>
+        <v>0.3707</v>
       </c>
       <c r="B13" s="0">
-        <v>1.47</v>
+        <v>2.6102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3073</v>
+        <v>0.308</v>
       </c>
       <c r="B14" s="0">
-        <v>1.1944</v>
+        <v>2.5542</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2927</v>
+        <v>0.2919</v>
       </c>
       <c r="B15" s="0">
-        <v>1.1667</v>
+        <v>2.554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.276</v>
+        <v>0.2747</v>
       </c>
       <c r="B16" s="0">
-        <v>1.1389</v>
+        <v>2.5124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2547</v>
+        <v>0.2553</v>
       </c>
       <c r="B17" s="0">
-        <v>1.1111</v>
+        <v>2.4983</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.238</v>
+        <v>0.2381</v>
       </c>
       <c r="B18" s="0">
-        <v>1.0833</v>
+        <v>2.4705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.219</v>
+        <v>0.2214</v>
       </c>
       <c r="B19" s="0">
-        <v>1.0556</v>
+        <v>2.4565</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2</v>
+        <v>0.2042</v>
       </c>
       <c r="B20" s="0">
-        <v>1.0278</v>
+        <v>2.4425</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1821</v>
+        <v>0.1848</v>
       </c>
       <c r="B21" s="0">
-        <v>1</v>
+        <v>2.4147</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1676</v>
+        <v>0.1643</v>
       </c>
       <c r="B22" s="0">
-        <v>0.9722</v>
+        <v>2.3868</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1497</v>
+        <v>0.1471</v>
       </c>
       <c r="B23" s="0">
-        <v>0.9444</v>
+        <v>2.3866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1318</v>
+        <v>0.1299</v>
       </c>
       <c r="B24" s="0">
-        <v>0.9167</v>
+        <v>2.3588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1128</v>
+        <v>0.1143</v>
       </c>
       <c r="B25" s="0">
-        <v>0.8611</v>
+        <v>2.331</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0939</v>
+        <v>0.096</v>
       </c>
       <c r="B26" s="0">
-        <v>0.8056</v>
+        <v>2.2756</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0743</v>
+        <v>0.0766</v>
       </c>
       <c r="B27" s="0">
-        <v>0.7639</v>
+        <v>2.2478</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.057</v>
+        <v>0.0583</v>
       </c>
       <c r="B28" s="0">
-        <v>0.6944</v>
+        <v>2.1924</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0391</v>
+        <v>0.04</v>
       </c>
       <c r="B29" s="0">
-        <v>0.6111</v>
+        <v>2.137</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0201</v>
+        <v>0.025</v>
       </c>
       <c r="B30" s="0">
-        <v>0.5</v>
+        <v>2.0541</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0034</v>
+        <v>0.0111</v>
       </c>
       <c r="B31" s="0">
-        <v>0.3889</v>
+        <v>1.9161</v>
       </c>
     </row>
     <row r="32"/>
@@ -5967,7 +10653,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5988,165 +10674,1277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0027</v>
+        <v>0.9872</v>
       </c>
       <c r="B3" s="0">
-        <v>4.6523</v>
+        <v>1.7641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0565</v>
+        <v>0.9323</v>
       </c>
       <c r="B4" s="0">
-        <v>5.4086</v>
+        <v>1.3223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1057</v>
+        <v>0.8718</v>
       </c>
       <c r="B5" s="0">
-        <v>5.6504</v>
+        <v>1.2388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1559</v>
+        <v>0.8097</v>
       </c>
       <c r="B6" s="0">
-        <v>5.7999</v>
+        <v>1.1552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2106</v>
+        <v>0.7492</v>
       </c>
       <c r="B7" s="0">
-        <v>5.9132</v>
+        <v>1.113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2635</v>
+        <v>0.6881</v>
       </c>
       <c r="B8" s="0">
-        <v>6.0234</v>
+        <v>1.0708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3164</v>
+        <v>0.621</v>
       </c>
       <c r="B9" s="0">
-        <v>6.1011</v>
+        <v>1.0423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.372</v>
+        <v>0.5566</v>
       </c>
       <c r="B10" s="0">
-        <v>6.168</v>
+        <v>1.0001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4249</v>
+        <v>0.4961</v>
       </c>
       <c r="B11" s="0">
-        <v>6.2322</v>
+        <v>0.9855</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4768</v>
+        <v>0.4329</v>
       </c>
       <c r="B12" s="0">
-        <v>6.276</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5261</v>
+        <v>0.3718</v>
       </c>
       <c r="B13" s="0">
-        <v>6.3278</v>
+        <v>0.9424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5753</v>
+        <v>0.308</v>
       </c>
       <c r="B14" s="0">
-        <v>6.3731</v>
+        <v>0.8864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6273</v>
+        <v>0.2902</v>
       </c>
       <c r="B15" s="0">
-        <v>6.4164</v>
+        <v>0.8862</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6811</v>
+        <v>0.2741</v>
       </c>
       <c r="B16" s="0">
-        <v>6.4541</v>
+        <v>0.8721</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7366</v>
+        <v>0.2558</v>
       </c>
       <c r="B17" s="0">
-        <v>6.5005</v>
+        <v>0.8443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.7879</v>
+        <v>0.2375</v>
       </c>
       <c r="B18" s="0">
-        <v>6.5415</v>
+        <v>0.8441</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.837</v>
+        <v>0.222</v>
       </c>
       <c r="B19" s="0">
-        <v>6.5836</v>
+        <v>0.8301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8872</v>
+        <v>0.2042</v>
       </c>
       <c r="B20" s="0">
-        <v>6.6452</v>
+        <v>0.8023</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9875</v>
+        <v>0.187</v>
       </c>
       <c r="B21" s="0">
-        <v>6.7747</v>
+        <v>0.7882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9419</v>
+        <v>0.1704</v>
       </c>
       <c r="B22" s="0">
-        <v>6.6944</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>0.7604</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1532</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.7602</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1321</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.7324</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1127</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.7183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0954</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.6767</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.076</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.6627</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0566</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0377</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.5794</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.5103</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0033</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.3998</v>
+      </c>
+    </row>
+    <row r="32"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.2334</v>
+      </c>
+      <c r="B3" s="0">
+        <v>13.8909</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.2502</v>
+      </c>
+      <c r="B4" s="0">
+        <v>13.9451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.2717</v>
+      </c>
+      <c r="B5" s="0">
+        <v>13.9626</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.2888</v>
+      </c>
+      <c r="B6" s="0">
+        <v>13.9995</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.3063</v>
+      </c>
+      <c r="B7" s="0">
+        <v>14.0226</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.3674</v>
+      </c>
+      <c r="B8" s="0">
+        <v>14.1391</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4294</v>
+      </c>
+      <c r="B9" s="0">
+        <v>14.2104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.4942</v>
+      </c>
+      <c r="B10" s="0">
+        <v>14.2989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5553</v>
+      </c>
+      <c r="B11" s="0">
+        <v>14.3723</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6173</v>
+      </c>
+      <c r="B12" s="0">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6811</v>
+      </c>
+      <c r="B13" s="0">
+        <v>14.5569</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7431</v>
+      </c>
+      <c r="B14" s="0">
+        <v>14.6217</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.8051</v>
+      </c>
+      <c r="B15" s="0">
+        <v>14.7188</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.8671</v>
+      </c>
+      <c r="B16" s="0">
+        <v>14.8257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.9291</v>
+      </c>
+      <c r="B17" s="0">
+        <v>14.9358</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.993</v>
+      </c>
+      <c r="B18" s="0">
+        <v>15.1614</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2179</v>
+      </c>
+      <c r="B19" s="0">
+        <v>13.8611</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1978</v>
+      </c>
+      <c r="B20" s="0">
+        <v>13.8056</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1799</v>
+      </c>
+      <c r="B21" s="0">
+        <v>13.7778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1609</v>
+      </c>
+      <c r="B22" s="0">
+        <v>13.6944</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.143</v>
+      </c>
+      <c r="B23" s="0">
+        <v>13.6389</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1251</v>
+      </c>
+      <c r="B24" s="0">
+        <v>13.6111</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1084</v>
+      </c>
+      <c r="B25" s="0">
+        <v>13.5556</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0883</v>
+      </c>
+      <c r="B26" s="0">
+        <v>13.4444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0726</v>
+      </c>
+      <c r="B27" s="0">
+        <v>13.3333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0525</v>
+      </c>
+      <c r="B28" s="0">
+        <v>13.1944</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.038</v>
+      </c>
+      <c r="B29" s="0">
+        <v>13.0278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="B30" s="0">
+        <v>12.6944</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0078</v>
+      </c>
+      <c r="B31" s="0">
+        <v>12.1667</v>
+      </c>
+    </row>
+    <row r="32"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.3683</v>
+      </c>
+      <c r="B3" s="0">
+        <v>6.3909</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.4312</v>
+      </c>
+      <c r="B4" s="0">
+        <v>6.4379</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.496</v>
+      </c>
+      <c r="B5" s="0">
+        <v>6.4854</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.5553</v>
+      </c>
+      <c r="B6" s="0">
+        <v>6.5124</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6173</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6.5286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.6793</v>
+      </c>
+      <c r="B8" s="0">
+        <v>6.5972</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.744</v>
+      </c>
+      <c r="B9" s="0">
+        <v>6.5987</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8069</v>
+      </c>
+      <c r="B10" s="0">
+        <v>6.6484</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8671</v>
+      </c>
+      <c r="B11" s="0">
+        <v>6.6743</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.9282</v>
+      </c>
+      <c r="B12" s="0">
+        <v>6.7234</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.9948</v>
+      </c>
+      <c r="B13" s="0">
+        <v>6.8647</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3061</v>
+      </c>
+      <c r="B14" s="0">
+        <v>6.3611</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2916</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6.3611</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2726</v>
+      </c>
+      <c r="B16" s="0">
+        <v>6.3333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2525</v>
+      </c>
+      <c r="B17" s="0">
+        <v>6.3333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2358</v>
+      </c>
+      <c r="B18" s="0">
+        <v>6.3056</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.219</v>
+      </c>
+      <c r="B19" s="0">
+        <v>6.3056</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2011</v>
+      </c>
+      <c r="B20" s="0">
+        <v>6.3056</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1832</v>
+      </c>
+      <c r="B21" s="0">
+        <v>6.2778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1676</v>
+      </c>
+      <c r="B22" s="0">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1497</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1318</v>
+      </c>
+      <c r="B24" s="0">
+        <v>6.1944</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.114</v>
+      </c>
+      <c r="B25" s="0">
+        <v>6.1667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.095</v>
+      </c>
+      <c r="B26" s="0">
+        <v>6.1389</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.076</v>
+      </c>
+      <c r="B27" s="0">
+        <v>6.1111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0603</v>
+      </c>
+      <c r="B28" s="0">
+        <v>6.0556</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0436</v>
+      </c>
+      <c r="B29" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0291</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5.9167</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0156</v>
+      </c>
+      <c r="B31" s="0">
+        <v>5.8056</v>
+      </c>
+    </row>
+    <row r="32"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.3656</v>
+      </c>
+      <c r="B3" s="0">
+        <v>4.8607</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.4276</v>
+      </c>
+      <c r="B4" s="0">
+        <v>4.9384</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.4896</v>
+      </c>
+      <c r="B5" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.5534</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5.0486</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6145</v>
+      </c>
+      <c r="B7" s="0">
+        <v>5.1413</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.6765</v>
+      </c>
+      <c r="B8" s="0">
+        <v>5.1894</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7395</v>
+      </c>
+      <c r="B9" s="0">
+        <v>5.2655</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8015</v>
+      </c>
+      <c r="B10" s="0">
+        <v>5.3109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8635</v>
+      </c>
+      <c r="B11" s="0">
+        <v>5.3595</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.9255</v>
+      </c>
+      <c r="B12" s="0">
+        <v>5.4469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.993</v>
+      </c>
+      <c r="B13" s="0">
+        <v>5.5667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.305</v>
+      </c>
+      <c r="B14" s="0">
+        <v>4.7778</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.286</v>
+      </c>
+      <c r="B15" s="0">
+        <v>4.7222</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2704</v>
+      </c>
+      <c r="B16" s="0">
+        <v>4.6944</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2514</v>
+      </c>
+      <c r="B17" s="0">
+        <v>4.6389</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2335</v>
+      </c>
+      <c r="B18" s="0">
+        <v>4.5556</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2145</v>
+      </c>
+      <c r="B19" s="0">
+        <v>4.4722</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1966</v>
+      </c>
+      <c r="B20" s="0">
+        <v>4.4444</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1765</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4.3889</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1598</v>
+      </c>
+      <c r="B22" s="0">
+        <v>4.3056</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.143</v>
+      </c>
+      <c r="B23" s="0">
+        <v>4.2222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1251</v>
+      </c>
+      <c r="B24" s="0">
+        <v>4.1389</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1073</v>
+      </c>
+      <c r="B25" s="0">
+        <v>4.0278</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0883</v>
+      </c>
+      <c r="B26" s="0">
+        <v>3.9167</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0715</v>
+      </c>
+      <c r="B27" s="0">
+        <v>3.8056</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0547</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3.6667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0369</v>
+      </c>
+      <c r="B29" s="0">
+        <v>3.4167</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="B30" s="0">
+        <v>3.1111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0067</v>
+      </c>
+      <c r="B31" s="0">
+        <v>2.6111</v>
+      </c>
+    </row>
+    <row r="32"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.3683</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1.2109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.4322</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1.2449</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.4978</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1.2562</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.5607</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1.2886</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6209</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.3016</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.6829</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.3242</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.744</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1.3809</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8078</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1.3837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.8689</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1.4149</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.9319</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1.4263</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.9875</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3073</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1.1944</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2927</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1.1667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.276</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1.1389</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2547</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1.1111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.238</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1.0833</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.219</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1.0556</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1.0278</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1821</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1676</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.9722</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1497</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.9444</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1318</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.9167</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1128</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0939</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.8056</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0743</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.7639</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.057</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.6944</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0391</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.6111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0201</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0034</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.3889</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 77 Characterization of Chemically and/Data77_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 77 Characterization of Chemically and/Data77_all_graphs_excel.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 CAC-NOCarb  0&amp;1&amp;0&amp;20 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 CAC200-2  0&amp;1&amp;0&amp;20 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 CAC200-4  0&amp;1&amp;0&amp;20 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3 CAC270-2  0&amp;1&amp;0&amp;20 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 3 CAC270-4  0&amp;1&amp;0&amp;20 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 3_1 PAC200-2  0&amp;1&amp;0&amp;20 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 3_1 PAC200-4  0&amp;1&amp;0&amp;20 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 3_1 PAC270-2  0&amp;1&amp;0&amp;20 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 3_1 PAC270-4  0&amp;1&amp;0&amp;20 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 3_1 PAC550-2  0&amp;1&amp;0&amp;20 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 3_1 PAC200-2  0&amp;1&amp;0&amp;20 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3_1 PAC200-4  0&amp;1&amp;0&amp;20 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3_1 PAC270-2  0&amp;1&amp;0&amp;20 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3_1 PAC270-4  0&amp;1&amp;0&amp;20 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3_1 PAC550-2  0&amp;1&amp;0&amp;20 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3_2 CAC-NOCarb  0&amp;1&amp;0&amp;20" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3_2 CAC200-2  0&amp;1&amp;0&amp;20 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 3_2 CAC200-4  0&amp;1&amp;0&amp;20 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 3_2 CAC270-2  0&amp;1&amp;0&amp;20 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 3_2 CAC270-4  0&amp;1&amp;0&amp;20 " sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -23,13 +23,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>CAC-NOCarb</t>
+    <t>PAC200-2</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>PAC200-4</t>
+  </si>
+  <si>
+    <t>PAC270-2</t>
+  </si>
+  <si>
+    <t>PAC270-4</t>
+  </si>
+  <si>
+    <t>PAC550-2</t>
+  </si>
+  <si>
+    <t>CAC-NOCarb</t>
   </si>
   <si>
     <t>CAC200-2</t>
@@ -42,21 +57,6 @@
   </si>
   <si>
     <t>CAC270-4</t>
-  </si>
-  <si>
-    <t>PAC200-2</t>
-  </si>
-  <si>
-    <t>PAC200-4</t>
-  </si>
-  <si>
-    <t>PAC270-2</t>
-  </si>
-  <si>
-    <t>PAC270-4</t>
-  </si>
-  <si>
-    <t>PAC550-2</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC-NOCarb z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki PAC200-2 z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -192,12 +192,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 CAC-NOCarb  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 PAC200-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 CAC-NOCarb  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 PAC200-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -415,6 +415,1262 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CAC270-4 z wykresu 'Figure 3_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 CAC270-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_2 CAC270-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki PAC200-4 z wykresu 'Figure 3_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC200-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC200-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki PAC270-2 z wykresu 'Figure 3_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC270-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC270-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki PAC270-4 z wykresu 'Figure 3_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC270-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 PAC270-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -728,7 +1984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -761,7 +2017,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC200-2 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki CAC-NOCarb z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -820,1268 +2076,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 CAC200-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 CAC-NOCarb  0&amp;1&amp;0&amp;20'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 CAC200-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC200-4 z wykresu 'Figure 3' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3 CAC200-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3 CAC200-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC270-2 z wykresu 'Figure 3' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3 CAC270-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3 CAC270-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC270-4 z wykresu 'Figure 3' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3 CAC270-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3 CAC270-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC200-2 z wykresu 'Figure 3_1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3_1 PAC200-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3_1 PAC200-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 CAC-NOCarb  0&amp;1&amp;0&amp;20'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2331,7 +2331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC200-4 z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki CAC200-2 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2390,12 +2390,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC200-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 CAC200-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC200-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 CAC200-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2645,7 +2645,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC270-2 z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki CAC200-4 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2704,12 +2704,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC270-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 CAC200-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC270-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 CAC200-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2959,7 +2959,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAC270-4 z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki CAC270-2 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3018,12 +3018,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC270-4  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 CAC270-2  0&amp;1&amp;0&amp;20 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 PAC270-4  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 CAC270-2  0&amp;1&amp;0&amp;20 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -9497,7 +9497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9518,165 +9518,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9867</v>
+        <v>0.2334</v>
       </c>
       <c r="B3" s="0">
-        <v>11.2059</v>
+        <v>13.8909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9367</v>
+        <v>0.2502</v>
       </c>
       <c r="B4" s="0">
-        <v>10.6263</v>
+        <v>13.9451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8879</v>
+        <v>0.2717</v>
       </c>
       <c r="B5" s="0">
-        <v>10.3913</v>
+        <v>13.9626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.838</v>
+        <v>0.2888</v>
       </c>
       <c r="B6" s="0">
-        <v>10.2803</v>
+        <v>13.9995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.788</v>
+        <v>0.3063</v>
       </c>
       <c r="B7" s="0">
-        <v>10.1969</v>
+        <v>14.0226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7342</v>
+        <v>0.3674</v>
       </c>
       <c r="B8" s="0">
-        <v>10.1686</v>
+        <v>14.1391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.682</v>
+        <v>0.4294</v>
       </c>
       <c r="B9" s="0">
-        <v>10.0852</v>
+        <v>14.2104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6337</v>
+        <v>0.4942</v>
       </c>
       <c r="B10" s="0">
-        <v>10.0432</v>
+        <v>14.2989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5821</v>
+        <v>0.5553</v>
       </c>
       <c r="B11" s="0">
-        <v>10.0149</v>
+        <v>14.3723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5244</v>
+        <v>0.6173</v>
       </c>
       <c r="B12" s="0">
-        <v>9.9728</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4734</v>
+        <v>0.6811</v>
       </c>
       <c r="B13" s="0">
-        <v>9.9169</v>
+        <v>14.5569</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4218</v>
+        <v>0.7431</v>
       </c>
       <c r="B14" s="0">
-        <v>9.8473</v>
+        <v>14.6217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3668</v>
+        <v>0.8051</v>
       </c>
       <c r="B15" s="0">
-        <v>9.8052</v>
+        <v>14.7188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3163</v>
+        <v>0.8671</v>
       </c>
       <c r="B16" s="0">
-        <v>9.7356</v>
+        <v>14.8257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2647</v>
+        <v>0.9291</v>
       </c>
       <c r="B17" s="0">
-        <v>9.6797</v>
+        <v>14.9358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2125</v>
+        <v>0.993</v>
       </c>
       <c r="B18" s="0">
-        <v>9.6101</v>
+        <v>15.1614</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1582</v>
+        <v>0.2179</v>
       </c>
       <c r="B19" s="0">
-        <v>9.5129</v>
+        <v>13.8611</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1054</v>
+        <v>0.1978</v>
       </c>
       <c r="B20" s="0">
-        <v>9.3743</v>
+        <v>13.8056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.056</v>
+        <v>0.1799</v>
       </c>
       <c r="B21" s="0">
-        <v>9.1806</v>
+        <v>13.7778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0039</v>
+        <v>0.1609</v>
       </c>
       <c r="B22" s="0">
-        <v>8.1186</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>13.6944</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.143</v>
+      </c>
+      <c r="B23" s="0">
+        <v>13.6389</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1251</v>
+      </c>
+      <c r="B24" s="0">
+        <v>13.6111</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1084</v>
+      </c>
+      <c r="B25" s="0">
+        <v>13.5556</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0883</v>
+      </c>
+      <c r="B26" s="0">
+        <v>13.4444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0726</v>
+      </c>
+      <c r="B27" s="0">
+        <v>13.3333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0525</v>
+      </c>
+      <c r="B28" s="0">
+        <v>13.1944</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.038</v>
+      </c>
+      <c r="B29" s="0">
+        <v>13.0278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="B30" s="0">
+        <v>12.6944</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0078</v>
+      </c>
+      <c r="B31" s="0">
+        <v>12.1667</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9685,7 +9757,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9706,165 +9778,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0027</v>
+        <v>0.9872</v>
       </c>
       <c r="B3" s="0">
-        <v>4.6523</v>
+        <v>1.7641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0565</v>
+        <v>0.9323</v>
       </c>
       <c r="B4" s="0">
-        <v>5.4086</v>
+        <v>1.3223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1057</v>
+        <v>0.8718</v>
       </c>
       <c r="B5" s="0">
-        <v>5.6504</v>
+        <v>1.2388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1559</v>
+        <v>0.8097</v>
       </c>
       <c r="B6" s="0">
-        <v>5.7999</v>
+        <v>1.1552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2106</v>
+        <v>0.7492</v>
       </c>
       <c r="B7" s="0">
-        <v>5.9132</v>
+        <v>1.113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2635</v>
+        <v>0.6881</v>
       </c>
       <c r="B8" s="0">
-        <v>6.0234</v>
+        <v>1.0708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3164</v>
+        <v>0.621</v>
       </c>
       <c r="B9" s="0">
-        <v>6.1011</v>
+        <v>1.0423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.372</v>
+        <v>0.5566</v>
       </c>
       <c r="B10" s="0">
-        <v>6.168</v>
+        <v>1.0001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4249</v>
+        <v>0.4961</v>
       </c>
       <c r="B11" s="0">
-        <v>6.2322</v>
+        <v>0.9855</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4768</v>
+        <v>0.4329</v>
       </c>
       <c r="B12" s="0">
-        <v>6.276</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5261</v>
+        <v>0.3718</v>
       </c>
       <c r="B13" s="0">
-        <v>6.3278</v>
+        <v>0.9424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5753</v>
+        <v>0.308</v>
       </c>
       <c r="B14" s="0">
-        <v>6.3731</v>
+        <v>0.8864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6273</v>
+        <v>0.2902</v>
       </c>
       <c r="B15" s="0">
-        <v>6.4164</v>
+        <v>0.8862</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6811</v>
+        <v>0.2741</v>
       </c>
       <c r="B16" s="0">
-        <v>6.4541</v>
+        <v>0.8721</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7366</v>
+        <v>0.2558</v>
       </c>
       <c r="B17" s="0">
-        <v>6.5005</v>
+        <v>0.8443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.7879</v>
+        <v>0.2375</v>
       </c>
       <c r="B18" s="0">
-        <v>6.5415</v>
+        <v>0.8441</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.837</v>
+        <v>0.222</v>
       </c>
       <c r="B19" s="0">
-        <v>6.5836</v>
+        <v>0.8301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8872</v>
+        <v>0.2042</v>
       </c>
       <c r="B20" s="0">
-        <v>6.6452</v>
+        <v>0.8023</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9875</v>
+        <v>0.187</v>
       </c>
       <c r="B21" s="0">
-        <v>6.7747</v>
+        <v>0.7882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9419</v>
+        <v>0.1704</v>
       </c>
       <c r="B22" s="0">
-        <v>6.6944</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>0.7604</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1532</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.7602</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1321</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.7324</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1127</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.7183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0954</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.6767</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.076</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.6627</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0566</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0377</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.5794</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.5103</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0033</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.3998</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9894,234 +10038,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99</v>
+        <v>0.3683</v>
       </c>
       <c r="B3" s="0">
-        <v>5.0033</v>
+        <v>6.3909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9301</v>
+        <v>0.4312</v>
       </c>
       <c r="B4" s="0">
-        <v>4.2444</v>
+        <v>6.4379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.869</v>
+        <v>0.496</v>
       </c>
       <c r="B5" s="0">
-        <v>4.1608</v>
+        <v>6.4854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.808</v>
+        <v>0.5553</v>
       </c>
       <c r="B6" s="0">
-        <v>4.1049</v>
+        <v>6.5124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7458</v>
+        <v>0.6173</v>
       </c>
       <c r="B7" s="0">
-        <v>4.0213</v>
+        <v>6.5286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6837</v>
+        <v>0.6793</v>
       </c>
       <c r="B8" s="0">
-        <v>4.0067</v>
+        <v>6.5972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6188</v>
+        <v>0.744</v>
       </c>
       <c r="B9" s="0">
-        <v>3.9782</v>
+        <v>6.5987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5566</v>
+        <v>0.8069</v>
       </c>
       <c r="B10" s="0">
-        <v>3.9222</v>
+        <v>6.6484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4961</v>
+        <v>0.8671</v>
       </c>
       <c r="B11" s="0">
-        <v>3.88</v>
+        <v>6.6743</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4317</v>
+        <v>0.9282</v>
       </c>
       <c r="B12" s="0">
-        <v>3.8516</v>
+        <v>6.7234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3701</v>
+        <v>0.9948</v>
       </c>
       <c r="B13" s="0">
-        <v>3.8094</v>
+        <v>6.8647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3074</v>
+        <v>0.3061</v>
       </c>
       <c r="B14" s="0">
-        <v>3.7672</v>
+        <v>6.3611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.288</v>
+        <v>0.2916</v>
       </c>
       <c r="B15" s="0">
-        <v>3.7531</v>
+        <v>6.3611</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2714</v>
+        <v>0.2726</v>
       </c>
       <c r="B16" s="0">
-        <v>3.7391</v>
+        <v>6.3333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2531</v>
+        <v>0.2525</v>
       </c>
       <c r="B17" s="0">
-        <v>3.7113</v>
+        <v>6.3333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2353</v>
+        <v>0.2358</v>
       </c>
       <c r="B18" s="0">
-        <v>3.6835</v>
+        <v>6.3056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2192</v>
+        <v>0.219</v>
       </c>
       <c r="B19" s="0">
-        <v>3.6695</v>
+        <v>6.3056</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2031</v>
+        <v>0.2011</v>
       </c>
       <c r="B20" s="0">
-        <v>3.6555</v>
+        <v>6.3056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1848</v>
+        <v>0.1832</v>
       </c>
       <c r="B21" s="0">
-        <v>3.6276</v>
+        <v>6.2778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1681</v>
+        <v>0.1676</v>
       </c>
       <c r="B22" s="0">
-        <v>3.6274</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1509</v>
+        <v>0.1497</v>
       </c>
       <c r="B23" s="0">
-        <v>3.6134</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1332</v>
+        <v>0.1318</v>
       </c>
       <c r="B24" s="0">
-        <v>3.5718</v>
+        <v>6.1944</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1127</v>
+        <v>0.114</v>
       </c>
       <c r="B25" s="0">
-        <v>3.5439</v>
+        <v>6.1667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0966</v>
+        <v>0.095</v>
       </c>
       <c r="B26" s="0">
-        <v>3.5161</v>
+        <v>6.1389</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0782</v>
+        <v>0.076</v>
       </c>
       <c r="B27" s="0">
-        <v>3.4608</v>
+        <v>6.1111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0616</v>
+        <v>0.0603</v>
       </c>
       <c r="B28" s="0">
-        <v>3.433</v>
+        <v>6.0556</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0411</v>
+        <v>0.0436</v>
       </c>
       <c r="B29" s="0">
-        <v>3.35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0244</v>
+        <v>0.0291</v>
       </c>
       <c r="B30" s="0">
-        <v>3.2533</v>
+        <v>5.9167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0122</v>
+        <v>0.0156</v>
       </c>
       <c r="B31" s="0">
-        <v>3.1015</v>
+        <v>5.8056</v>
       </c>
     </row>
     <row r="32"/>
@@ -10154,234 +10298,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99</v>
+        <v>0.3656</v>
       </c>
       <c r="B3" s="0">
-        <v>5.8717</v>
+        <v>4.8607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9262</v>
+        <v>0.4276</v>
       </c>
       <c r="B4" s="0">
-        <v>5.0162</v>
+        <v>4.9384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8674</v>
+        <v>0.4896</v>
       </c>
       <c r="B5" s="0">
-        <v>4.85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8063</v>
+        <v>0.5534</v>
       </c>
       <c r="B6" s="0">
-        <v>4.8078</v>
+        <v>5.0486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7436</v>
+        <v>0.6145</v>
       </c>
       <c r="B7" s="0">
-        <v>4.7656</v>
+        <v>5.1413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.682</v>
+        <v>0.6765</v>
       </c>
       <c r="B8" s="0">
-        <v>4.7096</v>
+        <v>5.1894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6204</v>
+        <v>0.7395</v>
       </c>
       <c r="B9" s="0">
-        <v>4.6536</v>
+        <v>5.2655</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5583</v>
+        <v>0.8015</v>
       </c>
       <c r="B10" s="0">
-        <v>4.6252</v>
+        <v>5.3109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4939</v>
+        <v>0.8635</v>
       </c>
       <c r="B11" s="0">
-        <v>4.583</v>
+        <v>5.3595</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4334</v>
+        <v>0.9255</v>
       </c>
       <c r="B12" s="0">
-        <v>4.5408</v>
+        <v>5.4469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.369</v>
+        <v>0.993</v>
       </c>
       <c r="B13" s="0">
-        <v>4.4985</v>
+        <v>5.5667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.308</v>
+        <v>0.305</v>
       </c>
       <c r="B14" s="0">
-        <v>4.4563</v>
+        <v>4.7778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2891</v>
+        <v>0.286</v>
       </c>
       <c r="B15" s="0">
-        <v>4.4285</v>
+        <v>4.7222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2758</v>
+        <v>0.2704</v>
       </c>
       <c r="B16" s="0">
-        <v>4.4283</v>
+        <v>4.6944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2547</v>
+        <v>0.2514</v>
       </c>
       <c r="B17" s="0">
-        <v>4.3867</v>
+        <v>4.6389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2381</v>
+        <v>0.2335</v>
       </c>
       <c r="B18" s="0">
-        <v>4.3865</v>
+        <v>4.5556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.222</v>
+        <v>0.2145</v>
       </c>
       <c r="B19" s="0">
-        <v>4.3587</v>
+        <v>4.4722</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2048</v>
+        <v>0.1966</v>
       </c>
       <c r="B20" s="0">
-        <v>4.3309</v>
+        <v>4.4444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1853</v>
+        <v>0.1765</v>
       </c>
       <c r="B21" s="0">
-        <v>4.3444</v>
+        <v>4.3889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1643</v>
+        <v>0.1598</v>
       </c>
       <c r="B22" s="0">
-        <v>4.3165</v>
+        <v>4.3056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1465</v>
+        <v>0.143</v>
       </c>
       <c r="B23" s="0">
-        <v>4.2749</v>
+        <v>4.2222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1282</v>
+        <v>0.1251</v>
       </c>
       <c r="B24" s="0">
-        <v>4.2471</v>
+        <v>4.1389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1115</v>
+        <v>0.1073</v>
       </c>
       <c r="B25" s="0">
-        <v>4.2193</v>
+        <v>4.0278</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.091</v>
+        <v>0.0883</v>
       </c>
       <c r="B26" s="0">
-        <v>4.1777</v>
+        <v>3.9167</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0733</v>
+        <v>0.0715</v>
       </c>
       <c r="B27" s="0">
-        <v>4.1223</v>
+        <v>3.8056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0555</v>
+        <v>0.0547</v>
       </c>
       <c r="B28" s="0">
-        <v>4.0807</v>
+        <v>3.6667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0366</v>
+        <v>0.0369</v>
       </c>
       <c r="B29" s="0">
-        <v>3.984</v>
+        <v>3.4167</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="B30" s="0">
-        <v>3.8735</v>
+        <v>3.1111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0039</v>
+        <v>0.0067</v>
       </c>
       <c r="B31" s="0">
-        <v>3.4873</v>
+        <v>2.6111</v>
       </c>
     </row>
     <row r="32"/>
@@ -10414,234 +10558,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9861</v>
+        <v>0.3683</v>
       </c>
       <c r="B3" s="0">
-        <v>5.8165</v>
+        <v>1.2109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9229</v>
+        <v>0.4322</v>
       </c>
       <c r="B4" s="0">
-        <v>3.4448</v>
+        <v>1.2449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.864</v>
+        <v>0.4978</v>
       </c>
       <c r="B5" s="0">
-        <v>3.1546</v>
+        <v>1.2562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8047</v>
+        <v>0.5607</v>
       </c>
       <c r="B6" s="0">
-        <v>3.0435</v>
+        <v>1.2886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7414</v>
+        <v>0.6209</v>
       </c>
       <c r="B7" s="0">
-        <v>2.9323</v>
+        <v>1.3016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6787</v>
+        <v>0.6829</v>
       </c>
       <c r="B8" s="0">
-        <v>2.8763</v>
+        <v>1.3242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6171</v>
+        <v>0.744</v>
       </c>
       <c r="B9" s="0">
-        <v>2.8204</v>
+        <v>1.3809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5533</v>
+        <v>0.8078</v>
       </c>
       <c r="B10" s="0">
-        <v>2.7781</v>
+        <v>1.3837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4922</v>
+        <v>0.8689</v>
       </c>
       <c r="B11" s="0">
-        <v>2.6946</v>
+        <v>1.4149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4317</v>
+        <v>0.9319</v>
       </c>
       <c r="B12" s="0">
-        <v>2.6524</v>
+        <v>1.4263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3707</v>
+        <v>0.9875</v>
       </c>
       <c r="B13" s="0">
-        <v>2.6102</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.308</v>
+        <v>0.3073</v>
       </c>
       <c r="B14" s="0">
-        <v>2.5542</v>
+        <v>1.1944</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2919</v>
+        <v>0.2927</v>
       </c>
       <c r="B15" s="0">
-        <v>2.554</v>
+        <v>1.1667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2747</v>
+        <v>0.276</v>
       </c>
       <c r="B16" s="0">
-        <v>2.5124</v>
+        <v>1.1389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2553</v>
+        <v>0.2547</v>
       </c>
       <c r="B17" s="0">
-        <v>2.4983</v>
+        <v>1.1111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2381</v>
+        <v>0.238</v>
       </c>
       <c r="B18" s="0">
-        <v>2.4705</v>
+        <v>1.0833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2214</v>
+        <v>0.219</v>
       </c>
       <c r="B19" s="0">
-        <v>2.4565</v>
+        <v>1.0556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2042</v>
+        <v>0.2</v>
       </c>
       <c r="B20" s="0">
-        <v>2.4425</v>
+        <v>1.0278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1848</v>
+        <v>0.1821</v>
       </c>
       <c r="B21" s="0">
-        <v>2.4147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1643</v>
+        <v>0.1676</v>
       </c>
       <c r="B22" s="0">
-        <v>2.3868</v>
+        <v>0.9722</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1471</v>
+        <v>0.1497</v>
       </c>
       <c r="B23" s="0">
-        <v>2.3866</v>
+        <v>0.9444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1299</v>
+        <v>0.1318</v>
       </c>
       <c r="B24" s="0">
-        <v>2.3588</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1143</v>
+        <v>0.1128</v>
       </c>
       <c r="B25" s="0">
-        <v>2.331</v>
+        <v>0.8611</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.096</v>
+        <v>0.0939</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2756</v>
+        <v>0.8056</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0766</v>
+        <v>0.0743</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2478</v>
+        <v>0.7639</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0583</v>
+        <v>0.057</v>
       </c>
       <c r="B28" s="0">
-        <v>2.1924</v>
+        <v>0.6944</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.04</v>
+        <v>0.0391</v>
       </c>
       <c r="B29" s="0">
-        <v>2.137</v>
+        <v>0.6111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.025</v>
+        <v>0.0201</v>
       </c>
       <c r="B30" s="0">
-        <v>2.0541</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0111</v>
+        <v>0.0034</v>
       </c>
       <c r="B31" s="0">
-        <v>1.9161</v>
+        <v>0.3889</v>
       </c>
     </row>
     <row r="32"/>
@@ -10653,7 +10797,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10674,237 +10818,165 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9872</v>
+        <v>0.0027</v>
       </c>
       <c r="B3" s="0">
-        <v>1.7641</v>
+        <v>4.6523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9323</v>
+        <v>0.0565</v>
       </c>
       <c r="B4" s="0">
-        <v>1.3223</v>
+        <v>5.4086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8718</v>
+        <v>0.1057</v>
       </c>
       <c r="B5" s="0">
-        <v>1.2388</v>
+        <v>5.6504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8097</v>
+        <v>0.1559</v>
       </c>
       <c r="B6" s="0">
-        <v>1.1552</v>
+        <v>5.7999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7492</v>
+        <v>0.2106</v>
       </c>
       <c r="B7" s="0">
-        <v>1.113</v>
+        <v>5.9132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6881</v>
+        <v>0.2635</v>
       </c>
       <c r="B8" s="0">
-        <v>1.0708</v>
+        <v>6.0234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.621</v>
+        <v>0.3164</v>
       </c>
       <c r="B9" s="0">
-        <v>1.0423</v>
+        <v>6.1011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5566</v>
+        <v>0.372</v>
       </c>
       <c r="B10" s="0">
-        <v>1.0001</v>
+        <v>6.168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4961</v>
+        <v>0.4249</v>
       </c>
       <c r="B11" s="0">
-        <v>0.9855</v>
+        <v>6.2322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4329</v>
+        <v>0.4768</v>
       </c>
       <c r="B12" s="0">
-        <v>0.957</v>
+        <v>6.276</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3718</v>
+        <v>0.5261</v>
       </c>
       <c r="B13" s="0">
-        <v>0.9424</v>
+        <v>6.3278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.308</v>
+        <v>0.5753</v>
       </c>
       <c r="B14" s="0">
-        <v>0.8864</v>
+        <v>6.3731</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2902</v>
+        <v>0.6273</v>
       </c>
       <c r="B15" s="0">
-        <v>0.8862</v>
+        <v>6.4164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2741</v>
+        <v>0.6811</v>
       </c>
       <c r="B16" s="0">
-        <v>0.8721</v>
+        <v>6.4541</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2558</v>
+        <v>0.7366</v>
       </c>
       <c r="B17" s="0">
-        <v>0.8443</v>
+        <v>6.5005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2375</v>
+        <v>0.7879</v>
       </c>
       <c r="B18" s="0">
-        <v>0.8441</v>
+        <v>6.5415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.222</v>
+        <v>0.837</v>
       </c>
       <c r="B19" s="0">
-        <v>0.8301</v>
+        <v>6.5836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2042</v>
+        <v>0.8872</v>
       </c>
       <c r="B20" s="0">
-        <v>0.8023</v>
+        <v>6.6452</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.187</v>
+        <v>0.9875</v>
       </c>
       <c r="B21" s="0">
-        <v>0.7882</v>
+        <v>6.7747</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1704</v>
+        <v>0.9419</v>
       </c>
       <c r="B22" s="0">
-        <v>0.7604</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.1532</v>
-      </c>
-      <c r="B23" s="0">
-        <v>0.7602</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1321</v>
-      </c>
-      <c r="B24" s="0">
-        <v>0.7324</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.1127</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0.7183</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0954</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0.6767</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.076</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0.6627</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0566</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.621</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0377</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.5794</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.5103</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0033</v>
-      </c>
-      <c r="B31" s="0">
-        <v>0.3998</v>
-      </c>
-    </row>
-    <row r="32"/>
+        <v>6.6944</v>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10913,7 +10985,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10934,237 +11006,165 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2334</v>
+        <v>0.9867</v>
       </c>
       <c r="B3" s="0">
-        <v>13.8909</v>
+        <v>11.2059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2502</v>
+        <v>0.9367</v>
       </c>
       <c r="B4" s="0">
-        <v>13.9451</v>
+        <v>10.6263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.2717</v>
+        <v>0.8879</v>
       </c>
       <c r="B5" s="0">
-        <v>13.9626</v>
+        <v>10.3913</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2888</v>
+        <v>0.838</v>
       </c>
       <c r="B6" s="0">
-        <v>13.9995</v>
+        <v>10.2803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.3063</v>
+        <v>0.788</v>
       </c>
       <c r="B7" s="0">
-        <v>14.0226</v>
+        <v>10.1969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3674</v>
+        <v>0.7342</v>
       </c>
       <c r="B8" s="0">
-        <v>14.1391</v>
+        <v>10.1686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4294</v>
+        <v>0.682</v>
       </c>
       <c r="B9" s="0">
-        <v>14.2104</v>
+        <v>10.0852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4942</v>
+        <v>0.6337</v>
       </c>
       <c r="B10" s="0">
-        <v>14.2989</v>
+        <v>10.0432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5553</v>
+        <v>0.5821</v>
       </c>
       <c r="B11" s="0">
-        <v>14.3723</v>
+        <v>10.0149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6173</v>
+        <v>0.5244</v>
       </c>
       <c r="B12" s="0">
-        <v>14.45</v>
+        <v>9.9728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6811</v>
+        <v>0.4734</v>
       </c>
       <c r="B13" s="0">
-        <v>14.5569</v>
+        <v>9.9169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7431</v>
+        <v>0.4218</v>
       </c>
       <c r="B14" s="0">
-        <v>14.6217</v>
+        <v>9.8473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8051</v>
+        <v>0.3668</v>
       </c>
       <c r="B15" s="0">
-        <v>14.7188</v>
+        <v>9.8052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.8671</v>
+        <v>0.3163</v>
       </c>
       <c r="B16" s="0">
-        <v>14.8257</v>
+        <v>9.7356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.9291</v>
+        <v>0.2647</v>
       </c>
       <c r="B17" s="0">
-        <v>14.9358</v>
+        <v>9.6797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.993</v>
+        <v>0.2125</v>
       </c>
       <c r="B18" s="0">
-        <v>15.1614</v>
+        <v>9.6101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2179</v>
+        <v>0.1582</v>
       </c>
       <c r="B19" s="0">
-        <v>13.8611</v>
+        <v>9.5129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1978</v>
+        <v>0.1054</v>
       </c>
       <c r="B20" s="0">
-        <v>13.8056</v>
+        <v>9.3743</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1799</v>
+        <v>0.056</v>
       </c>
       <c r="B21" s="0">
-        <v>13.7778</v>
+        <v>9.1806</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1609</v>
+        <v>0.0039</v>
       </c>
       <c r="B22" s="0">
-        <v>13.6944</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.143</v>
-      </c>
-      <c r="B23" s="0">
-        <v>13.6389</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1251</v>
-      </c>
-      <c r="B24" s="0">
-        <v>13.6111</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.1084</v>
-      </c>
-      <c r="B25" s="0">
-        <v>13.5556</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0883</v>
-      </c>
-      <c r="B26" s="0">
-        <v>13.4444</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0726</v>
-      </c>
-      <c r="B27" s="0">
-        <v>13.3333</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0525</v>
-      </c>
-      <c r="B28" s="0">
-        <v>13.1944</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.038</v>
-      </c>
-      <c r="B29" s="0">
-        <v>13.0278</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.019</v>
-      </c>
-      <c r="B30" s="0">
-        <v>12.6944</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0078</v>
-      </c>
-      <c r="B31" s="0">
-        <v>12.1667</v>
-      </c>
-    </row>
-    <row r="32"/>
+        <v>8.1186</v>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -11194,234 +11194,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.3683</v>
+        <v>0.99</v>
       </c>
       <c r="B3" s="0">
-        <v>6.3909</v>
+        <v>5.0033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.4312</v>
+        <v>0.9301</v>
       </c>
       <c r="B4" s="0">
-        <v>6.4379</v>
+        <v>4.2444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.496</v>
+        <v>0.869</v>
       </c>
       <c r="B5" s="0">
-        <v>6.4854</v>
+        <v>4.1608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.5553</v>
+        <v>0.808</v>
       </c>
       <c r="B6" s="0">
-        <v>6.5124</v>
+        <v>4.1049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6173</v>
+        <v>0.7458</v>
       </c>
       <c r="B7" s="0">
-        <v>6.5286</v>
+        <v>4.0213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6793</v>
+        <v>0.6837</v>
       </c>
       <c r="B8" s="0">
-        <v>6.5972</v>
+        <v>4.0067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.744</v>
+        <v>0.6188</v>
       </c>
       <c r="B9" s="0">
-        <v>6.5987</v>
+        <v>3.9782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8069</v>
+        <v>0.5566</v>
       </c>
       <c r="B10" s="0">
-        <v>6.6484</v>
+        <v>3.9222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8671</v>
+        <v>0.4961</v>
       </c>
       <c r="B11" s="0">
-        <v>6.6743</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9282</v>
+        <v>0.4317</v>
       </c>
       <c r="B12" s="0">
-        <v>6.7234</v>
+        <v>3.8516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9948</v>
+        <v>0.3701</v>
       </c>
       <c r="B13" s="0">
-        <v>6.8647</v>
+        <v>3.8094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3061</v>
+        <v>0.3074</v>
       </c>
       <c r="B14" s="0">
-        <v>6.3611</v>
+        <v>3.7672</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2916</v>
+        <v>0.288</v>
       </c>
       <c r="B15" s="0">
-        <v>6.3611</v>
+        <v>3.7531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2726</v>
+        <v>0.2714</v>
       </c>
       <c r="B16" s="0">
-        <v>6.3333</v>
+        <v>3.7391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2525</v>
+        <v>0.2531</v>
       </c>
       <c r="B17" s="0">
-        <v>6.3333</v>
+        <v>3.7113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2358</v>
+        <v>0.2353</v>
       </c>
       <c r="B18" s="0">
-        <v>6.3056</v>
+        <v>3.6835</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.219</v>
+        <v>0.2192</v>
       </c>
       <c r="B19" s="0">
-        <v>6.3056</v>
+        <v>3.6695</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2011</v>
+        <v>0.2031</v>
       </c>
       <c r="B20" s="0">
-        <v>6.3056</v>
+        <v>3.6555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1832</v>
+        <v>0.1848</v>
       </c>
       <c r="B21" s="0">
-        <v>6.2778</v>
+        <v>3.6276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1676</v>
+        <v>0.1681</v>
       </c>
       <c r="B22" s="0">
-        <v>6.25</v>
+        <v>3.6274</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1497</v>
+        <v>0.1509</v>
       </c>
       <c r="B23" s="0">
-        <v>6.25</v>
+        <v>3.6134</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1318</v>
+        <v>0.1332</v>
       </c>
       <c r="B24" s="0">
-        <v>6.1944</v>
+        <v>3.5718</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.114</v>
+        <v>0.1127</v>
       </c>
       <c r="B25" s="0">
-        <v>6.1667</v>
+        <v>3.5439</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.095</v>
+        <v>0.0966</v>
       </c>
       <c r="B26" s="0">
-        <v>6.1389</v>
+        <v>3.5161</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.076</v>
+        <v>0.0782</v>
       </c>
       <c r="B27" s="0">
-        <v>6.1111</v>
+        <v>3.4608</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0603</v>
+        <v>0.0616</v>
       </c>
       <c r="B28" s="0">
-        <v>6.0556</v>
+        <v>3.433</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0436</v>
+        <v>0.0411</v>
       </c>
       <c r="B29" s="0">
-        <v>6</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0291</v>
+        <v>0.0244</v>
       </c>
       <c r="B30" s="0">
-        <v>5.9167</v>
+        <v>3.2533</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0156</v>
+        <v>0.0122</v>
       </c>
       <c r="B31" s="0">
-        <v>5.8056</v>
+        <v>3.1015</v>
       </c>
     </row>
     <row r="32"/>
@@ -11454,234 +11454,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.3656</v>
+        <v>0.99</v>
       </c>
       <c r="B3" s="0">
-        <v>4.8607</v>
+        <v>5.8717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.4276</v>
+        <v>0.9262</v>
       </c>
       <c r="B4" s="0">
-        <v>4.9384</v>
+        <v>5.0162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.4896</v>
+        <v>0.8674</v>
       </c>
       <c r="B5" s="0">
-        <v>5</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.5534</v>
+        <v>0.8063</v>
       </c>
       <c r="B6" s="0">
-        <v>5.0486</v>
+        <v>4.8078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6145</v>
+        <v>0.7436</v>
       </c>
       <c r="B7" s="0">
-        <v>5.1413</v>
+        <v>4.7656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6765</v>
+        <v>0.682</v>
       </c>
       <c r="B8" s="0">
-        <v>5.1894</v>
+        <v>4.7096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7395</v>
+        <v>0.6204</v>
       </c>
       <c r="B9" s="0">
-        <v>5.2655</v>
+        <v>4.6536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8015</v>
+        <v>0.5583</v>
       </c>
       <c r="B10" s="0">
-        <v>5.3109</v>
+        <v>4.6252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8635</v>
+        <v>0.4939</v>
       </c>
       <c r="B11" s="0">
-        <v>5.3595</v>
+        <v>4.583</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9255</v>
+        <v>0.4334</v>
       </c>
       <c r="B12" s="0">
-        <v>5.4469</v>
+        <v>4.5408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.993</v>
+        <v>0.369</v>
       </c>
       <c r="B13" s="0">
-        <v>5.5667</v>
+        <v>4.4985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.305</v>
+        <v>0.308</v>
       </c>
       <c r="B14" s="0">
-        <v>4.7778</v>
+        <v>4.4563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.286</v>
+        <v>0.2891</v>
       </c>
       <c r="B15" s="0">
-        <v>4.7222</v>
+        <v>4.4285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2704</v>
+        <v>0.2758</v>
       </c>
       <c r="B16" s="0">
-        <v>4.6944</v>
+        <v>4.4283</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2514</v>
+        <v>0.2547</v>
       </c>
       <c r="B17" s="0">
-        <v>4.6389</v>
+        <v>4.3867</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2335</v>
+        <v>0.2381</v>
       </c>
       <c r="B18" s="0">
-        <v>4.5556</v>
+        <v>4.3865</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2145</v>
+        <v>0.222</v>
       </c>
       <c r="B19" s="0">
-        <v>4.4722</v>
+        <v>4.3587</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1966</v>
+        <v>0.2048</v>
       </c>
       <c r="B20" s="0">
-        <v>4.4444</v>
+        <v>4.3309</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1765</v>
+        <v>0.1853</v>
       </c>
       <c r="B21" s="0">
-        <v>4.3889</v>
+        <v>4.3444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1598</v>
+        <v>0.1643</v>
       </c>
       <c r="B22" s="0">
-        <v>4.3056</v>
+        <v>4.3165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.143</v>
+        <v>0.1465</v>
       </c>
       <c r="B23" s="0">
-        <v>4.2222</v>
+        <v>4.2749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1251</v>
+        <v>0.1282</v>
       </c>
       <c r="B24" s="0">
-        <v>4.1389</v>
+        <v>4.2471</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1073</v>
+        <v>0.1115</v>
       </c>
       <c r="B25" s="0">
-        <v>4.0278</v>
+        <v>4.2193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0883</v>
+        <v>0.091</v>
       </c>
       <c r="B26" s="0">
-        <v>3.9167</v>
+        <v>4.1777</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0715</v>
+        <v>0.0733</v>
       </c>
       <c r="B27" s="0">
-        <v>3.8056</v>
+        <v>4.1223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0547</v>
+        <v>0.0555</v>
       </c>
       <c r="B28" s="0">
-        <v>3.6667</v>
+        <v>4.0807</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0369</v>
+        <v>0.0366</v>
       </c>
       <c r="B29" s="0">
-        <v>3.4167</v>
+        <v>3.984</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="B30" s="0">
-        <v>3.1111</v>
+        <v>3.8735</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0067</v>
+        <v>0.0039</v>
       </c>
       <c r="B31" s="0">
-        <v>2.6111</v>
+        <v>3.4873</v>
       </c>
     </row>
     <row r="32"/>
@@ -11714,234 +11714,234 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.3683</v>
+        <v>0.9861</v>
       </c>
       <c r="B3" s="0">
-        <v>1.2109</v>
+        <v>5.8165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.4322</v>
+        <v>0.9229</v>
       </c>
       <c r="B4" s="0">
-        <v>1.2449</v>
+        <v>3.4448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.4978</v>
+        <v>0.864</v>
       </c>
       <c r="B5" s="0">
-        <v>1.2562</v>
+        <v>3.1546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.5607</v>
+        <v>0.8047</v>
       </c>
       <c r="B6" s="0">
-        <v>1.2886</v>
+        <v>3.0435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6209</v>
+        <v>0.7414</v>
       </c>
       <c r="B7" s="0">
-        <v>1.3016</v>
+        <v>2.9323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6829</v>
+        <v>0.6787</v>
       </c>
       <c r="B8" s="0">
-        <v>1.3242</v>
+        <v>2.8763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.744</v>
+        <v>0.6171</v>
       </c>
       <c r="B9" s="0">
-        <v>1.3809</v>
+        <v>2.8204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8078</v>
+        <v>0.5533</v>
       </c>
       <c r="B10" s="0">
-        <v>1.3837</v>
+        <v>2.7781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8689</v>
+        <v>0.4922</v>
       </c>
       <c r="B11" s="0">
-        <v>1.4149</v>
+        <v>2.6946</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9319</v>
+        <v>0.4317</v>
       </c>
       <c r="B12" s="0">
-        <v>1.4263</v>
+        <v>2.6524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.9875</v>
+        <v>0.3707</v>
       </c>
       <c r="B13" s="0">
-        <v>1.47</v>
+        <v>2.6102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3073</v>
+        <v>0.308</v>
       </c>
       <c r="B14" s="0">
-        <v>1.1944</v>
+        <v>2.5542</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2927</v>
+        <v>0.2919</v>
       </c>
       <c r="B15" s="0">
-        <v>1.1667</v>
+        <v>2.554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.276</v>
+        <v>0.2747</v>
       </c>
       <c r="B16" s="0">
-        <v>1.1389</v>
+        <v>2.5124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2547</v>
+        <v>0.2553</v>
       </c>
       <c r="B17" s="0">
-        <v>1.1111</v>
+        <v>2.4983</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.238</v>
+        <v>0.2381</v>
       </c>
       <c r="B18" s="0">
-        <v>1.0833</v>
+        <v>2.4705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.219</v>
+        <v>0.2214</v>
       </c>
       <c r="B19" s="0">
-        <v>1.0556</v>
+        <v>2.4565</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2</v>
+        <v>0.2042</v>
       </c>
       <c r="B20" s="0">
-        <v>1.0278</v>
+        <v>2.4425</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1821</v>
+        <v>0.1848</v>
       </c>
       <c r="B21" s="0">
-        <v>1</v>
+        <v>2.4147</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1676</v>
+        <v>0.1643</v>
       </c>
       <c r="B22" s="0">
-        <v>0.9722</v>
+        <v>2.3868</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1497</v>
+        <v>0.1471</v>
       </c>
       <c r="B23" s="0">
-        <v>0.9444</v>
+        <v>2.3866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1318</v>
+        <v>0.1299</v>
       </c>
       <c r="B24" s="0">
-        <v>0.9167</v>
+        <v>2.3588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1128</v>
+        <v>0.1143</v>
       </c>
       <c r="B25" s="0">
-        <v>0.8611</v>
+        <v>2.331</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0939</v>
+        <v>0.096</v>
       </c>
       <c r="B26" s="0">
-        <v>0.8056</v>
+        <v>2.2756</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0743</v>
+        <v>0.0766</v>
       </c>
       <c r="B27" s="0">
-        <v>0.7639</v>
+        <v>2.2478</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.057</v>
+        <v>0.0583</v>
       </c>
       <c r="B28" s="0">
-        <v>0.6944</v>
+        <v>2.1924</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0391</v>
+        <v>0.04</v>
       </c>
       <c r="B29" s="0">
-        <v>0.6111</v>
+        <v>2.137</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0201</v>
+        <v>0.025</v>
       </c>
       <c r="B30" s="0">
-        <v>0.5</v>
+        <v>2.0541</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0034</v>
+        <v>0.0111</v>
       </c>
       <c r="B31" s="0">
-        <v>0.3889</v>
+        <v>1.9161</v>
       </c>
     </row>
     <row r="32"/>
